--- a/Documents/四川农大.xlsx
+++ b/Documents/四川农大.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13635" windowHeight="8055" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URLS" sheetId="1" r:id="rId1"/>
+    <sheet name="字段" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,30 +21,611 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="188">
   <si>
     <t>http://www.cnzx.info/ASPdotNET_NEW_publish_2/ZhaoShengBaoMing/BAOMING.ASPX?PageBMD=360401&amp;PagePC=121&amp;PageCONTROL=bm_page</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>选项值</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>tbx_XM</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>RdoBtnLst_XB</t>
+  </si>
+  <si>
+    <t>1 男</t>
+  </si>
+  <si>
+    <t>2 女</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>DpDnLst_MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 汉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 蒙古 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 回 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 藏 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 维吾尔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 苗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 彝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 壮 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 布依 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 朝鲜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 满 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 侗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 瑶 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 白 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 土家 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 哈尼 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 哈萨克 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 傣 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 黎 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 傈僳 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 佤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 畲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 高山 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 拉祜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 水 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 东乡 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 纳西 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 景颇 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 柯尔克孜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 土 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 达斡尔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 仫佬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 羌 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 布朗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 撒拉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 毛难 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 仡佬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 锡伯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 阿昌 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 普米 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 塔吉克 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 怒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 乌孜别克 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 俄罗斯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 鄂温克 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 崩龙 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 保安 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 裕固 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 京 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 塔塔尔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 独龙 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 鄂伦春 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 赫哲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 门巴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 珞巴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 基诺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 穿青人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">98 外国血统 </t>
+  </si>
+  <si>
+    <t>有效证件</t>
+  </si>
+  <si>
+    <t>DpDnLst_ZJLX</t>
+  </si>
+  <si>
+    <t>01 身份证</t>
+  </si>
+  <si>
+    <t>02 军官证</t>
+  </si>
+  <si>
+    <t>tbx_ZJHM</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>18位,自动判断男女和生日</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>tbx_LXDH</t>
+  </si>
+  <si>
+    <t>11位</t>
+  </si>
+  <si>
+    <t>DpDnLst_ZZMM</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 群众 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 中共党员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 共青团员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 民革会员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 民盟盟员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 民建会员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 民进会员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 农工党党员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 致公党党员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 九三学社社员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 台盟盟员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 无党派民主人士 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 中共预备党员 </t>
+  </si>
+  <si>
+    <t>报考层次</t>
+  </si>
+  <si>
+    <t>DpDnLst_BKCC</t>
+  </si>
+  <si>
+    <t>3 高中起点专科</t>
+  </si>
+  <si>
+    <t>2 专科起点本科</t>
+  </si>
+  <si>
+    <t>文化程度</t>
+  </si>
+  <si>
+    <t>DpDnLst_WHCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 高中(职高) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 本科 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 大专(专科) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 中专(中技) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 初中 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 初中以下 </t>
+  </si>
+  <si>
+    <t>考生类型</t>
+  </si>
+  <si>
+    <t>RdoBtnLst_KSLX</t>
+  </si>
+  <si>
+    <t>1 考试生</t>
+  </si>
+  <si>
+    <t>0 专科及以上学历报专科免试的</t>
+  </si>
+  <si>
+    <t>2 参加当年成人高考可免试的</t>
+  </si>
+  <si>
+    <t>报考专业</t>
+  </si>
+  <si>
+    <t>DpDnLst_ZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 经济信息管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 法律事务 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 旅游管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 农业技术与管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 会计与统计核算 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 计算机信息管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 畜牧兽医 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 行政管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 机电一体化技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 供用电技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 建筑工程技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 心理咨询(教育心理学) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 烟草栽培技术(烟草生产经营与管理) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 水产养殖技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 社会工作 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71 酒店管理 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 环境监测与治理技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 林业技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81 园林技术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 市场营销 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">94 工商企业管理 </t>
+  </si>
+  <si>
+    <t>01 计算机科学与技术</t>
+  </si>
+  <si>
+    <t>02 金融学</t>
+  </si>
+  <si>
+    <t>03 工商管理</t>
+  </si>
+  <si>
+    <t>04 汉语言文学</t>
+  </si>
+  <si>
+    <t>05 教育技术学</t>
+  </si>
+  <si>
+    <t>09 人力资源管理</t>
+  </si>
+  <si>
+    <t>10 土地资源管理</t>
+  </si>
+  <si>
+    <t>11 水利水电工程</t>
+  </si>
+  <si>
+    <t>12 水产养殖学</t>
+  </si>
+  <si>
+    <t>14 法学</t>
+  </si>
+  <si>
+    <t>16 经济学</t>
+  </si>
+  <si>
+    <t>19 艺术设计</t>
+  </si>
+  <si>
+    <t>21 园林</t>
+  </si>
+  <si>
+    <t>23 动物科学</t>
+  </si>
+  <si>
+    <t>24 土木工程(工业与民用建筑)</t>
+  </si>
+  <si>
+    <t>28 旅游管理</t>
+  </si>
+  <si>
+    <t>29 林学</t>
+  </si>
+  <si>
+    <t>57 烟草</t>
+  </si>
+  <si>
+    <t>63 财务管理</t>
+  </si>
+  <si>
+    <t>78 社会工作</t>
+  </si>
+  <si>
+    <t>79 土木工程</t>
+  </si>
+  <si>
+    <t>82 农业电气化与自动化</t>
+  </si>
+  <si>
+    <t>93 动物医学</t>
+  </si>
+  <si>
+    <t>96 环境工程</t>
+  </si>
+  <si>
+    <t>98 农学</t>
+  </si>
+  <si>
+    <t>联系地址</t>
+  </si>
+  <si>
+    <t>tbx_TXDZ</t>
+  </si>
+  <si>
+    <t>从事职业</t>
+  </si>
+  <si>
+    <t>DpDnLst_ZYLB</t>
+  </si>
+  <si>
+    <t>000 办事人员和有关人员</t>
+  </si>
+  <si>
+    <t>001 国家机关</t>
+  </si>
+  <si>
+    <t>002 党群组织</t>
+  </si>
+  <si>
+    <t>003 企事业单位负责人</t>
+  </si>
+  <si>
+    <t>004 军人</t>
+  </si>
+  <si>
+    <t>005 专业技术人员</t>
+  </si>
+  <si>
+    <t>006 教师</t>
+  </si>
+  <si>
+    <t>008 商业、服务业人员</t>
+  </si>
+  <si>
+    <t>009 农、林、牧、渔、水利业生产人员</t>
+  </si>
+  <si>
+    <t>010 生产运输设备操作人员及有关人员</t>
+  </si>
+  <si>
+    <t>099 不便分类的其它从业人员</t>
+  </si>
+  <si>
+    <t>毕业学校</t>
+  </si>
+  <si>
+    <t>tbx_BYXX</t>
+  </si>
+  <si>
+    <t>毕业专业</t>
+  </si>
+  <si>
+    <t>tbx_BYZY</t>
+  </si>
+  <si>
+    <t>毕业时间</t>
+  </si>
+  <si>
+    <t>tbx_BYSJ</t>
+  </si>
+  <si>
+    <t>yyyymmdd</t>
+  </si>
+  <si>
+    <t>毕业证书编号</t>
+  </si>
+  <si>
+    <t>tbx_BYZSBH</t>
+  </si>
+  <si>
+    <t>成人高考考号</t>
+  </si>
+  <si>
+    <t>tbx_CjKaohao</t>
+  </si>
+  <si>
+    <t>成人高考成绩</t>
+  </si>
+  <si>
+    <t>tbx_CjChengji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A1AA6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,11 +648,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -397,14 +987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="121.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -423,4 +1013,760 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="18.75">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="18.75">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="18.75">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="18.75">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="18.75">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="18.75">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="G63" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="G64" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>